--- a/templates/main_template.xlsx
+++ b/templates/main_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>{template}</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>{donations}</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>{other_living_expenses}</t>
@@ -189,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -199,6 +205,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -514,14 +523,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="65.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="65.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -730,10 +739,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -743,8 +752,12 @@
       <c r="H13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -752,7 +765,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/templates/main_template.xlsx
+++ b/templates/main_template.xlsx
@@ -49,7 +49,7 @@
     <t>Unkown</t>
   </si>
   <si>
-    <t>{unkown}</t>
+    <t>{unknown}</t>
   </si>
   <si>
     <t>Groceries/Snacks</t>
@@ -142,7 +142,7 @@
     <t>Electric</t>
   </si>
   <si>
-    <t/>
+    <t>{electricity}</t>
   </si>
   <si>
     <t>{other_living_expenses}</t>
@@ -195,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -205,9 +205,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -523,14 +520,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="65.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="65.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -741,7 +738,7 @@
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="1"/>
